--- a/biology/Botanique/Genêt_cendré/Genêt_cendré.xlsx
+++ b/biology/Botanique/Genêt_cendré/Genêt_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_cendr%C3%A9</t>
+          <t>Genêt_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista cinerea
 Le genêt cendré (Genista cinerea) est une espèce de petit arbrisseau non épineux de la famille des Fabaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_cendr%C3%A9</t>
+          <t>Genêt_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux lèvres du calice sont très inégales et aussi longues ou plus longues que son tube. Au niveau de la corolle, l'étendard, les ailes et la carène sont rapprochés et deviennent blanchâtres avant de tomber (d'où le nom cendré). Il fleurit d'avril à juillet.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_cendr%C3%A9</t>
+          <t>Genêt_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genêt se rencontre sur les coteaux rocailleux calcaires essentiellement dans la région méditerranéenne.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_cendr%C3%A9</t>
+          <t>Genêt_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonyme
-Spartium cinereum Vill.
-Liste des sous-espèces
-Selon Catalogue of Life                                   (1 avr. 2012)[1] :
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spartium cinereum Vill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Genêt_cendré</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gen%C3%AAt_cendr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 avr. 2012) :
 sous-espèce Genista cinerea subsp. ausetana O.Bolos &amp; Vigo
 sous-espèce Genista cinerea subsp. cinerea
 sous-espèce Genista cinerea subsp. murcica (Coss.)Canto &amp; M.J.Sanchez
